--- a/parameters/Datos.xlsx
+++ b/parameters/Datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semillero QA\projects\weather-API-Rest\parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533407AD-340F-4682-A994-9060FA4BED60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1366F01B-1DBE-4F58-84A0-6C9C49BC2A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,17 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>endpoint</t>
   </si>
   <si>
-    <t>param</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
     <t>code</t>
   </si>
   <si>
@@ -51,7 +45,7 @@
     <t>Aberdeen</t>
   </si>
   <si>
-    <t>data,status</t>
+    <t>name,weather,status</t>
   </si>
 </sst>
 </file>
@@ -378,53 +372,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2">
+        <v>200</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2">
-        <v>200</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
